--- a/sources/case/AllTypes.xlsx
+++ b/sources/case/AllTypes.xlsx
@@ -70,6 +70,38 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>/automation/v1/approval/alltypes?all=true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ET</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alltypes_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>approval</t>
     </r>
@@ -93,38 +125,6 @@
       </rPr>
       <t>ypes</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/automation/v1/approval/alltypes?all=true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取所有类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ET</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alltypes_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>total_count</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +496,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -532,19 +532,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -605,12 +605,12 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>17</v>

--- a/sources/case/AllTypes.xlsx
+++ b/sources/case/AllTypes.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -67,10 +67,6 @@
   </si>
   <si>
     <t>http://console.t.upvi.com/bapi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/automation/v1/approval/alltypes?all=true</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -125,6 +121,10 @@
       </rPr>
       <t>ypes</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/automation/v1/approval/alltypes?all=true</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +496,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -532,19 +532,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -605,12 +605,12 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>17</v>
